--- a/data/trans_orig/IP40-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP40-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD3D7ED-A3FB-4B1F-91B5-8F33CCC06E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{097DF221-5491-473B-AAD4-189BF277D5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8ABABC20-6F36-434E-9A9F-82F42C9266B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6D10D85-9FFC-4FF4-99EF-74EA7969B515}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="555">
   <si>
     <t>Adulto según como llegan a fin de mes con los ingresos de su hogar en 2012 (Tasa respuesta: 97,0%)</t>
   </si>
@@ -124,1573 +124,1585 @@
     <t>4,48%</t>
   </si>
   <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
     <t>1,55%</t>
   </si>
   <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según como llegan a fin de mes con los ingresos de su hogar en 2016 (Tasa respuesta: 98,82%)</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>Adulto según como llegan a fin de mes con los ingresos de su hogar en 2023 (Tasa respuesta: 4,74%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>33,08%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según como llegan a fin de mes con los ingresos de su hogar en 2015 (Tasa respuesta: 98,82%)</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>Adulto según como llegan a fin de mes con los ingresos de su hogar en 2023 (Tasa respuesta: 4,74%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>3,8%</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC435135-6BEA-4788-B1FD-BA897B362491}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AF1A6E-CBCA-453A-97D6-3C07990B4217}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2963,10 +2975,10 @@
         <v>77</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2993,13 @@
         <v>42061</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -2996,7 +3008,7 @@
         <v>31390</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>83</v>
@@ -3032,13 +3044,13 @@
         <v>87422</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>126</v>
@@ -3047,13 +3059,13 @@
         <v>86532</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>255</v>
@@ -3062,13 +3074,13 @@
         <v>173954</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3095,13 @@
         <v>153377</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H21" s="7">
         <v>215</v>
@@ -3098,13 +3110,13 @@
         <v>148645</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M21" s="7">
         <v>432</v>
@@ -3113,13 +3125,13 @@
         <v>302023</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3146,13 @@
         <v>101225</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -3149,13 +3161,13 @@
         <v>102058</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>290</v>
@@ -3164,13 +3176,13 @@
         <v>203283</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3197,13 @@
         <v>84313</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>102</v>
@@ -3200,13 +3212,13 @@
         <v>70309</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>224</v>
@@ -3215,13 +3227,13 @@
         <v>154622</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3289,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3289,7 +3301,7 @@
         <v>2656</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>125</v>
@@ -3370,13 +3382,13 @@
         <v>84407</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3403,13 @@
         <v>57895</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H27" s="7">
         <v>72</v>
@@ -3406,13 +3418,13 @@
         <v>50787</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M27" s="7">
         <v>157</v>
@@ -3421,13 +3433,13 @@
         <v>108683</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3454,13 @@
         <v>41033</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -3457,13 +3469,13 @@
         <v>41723</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M28" s="7">
         <v>118</v>
@@ -3472,13 +3484,13 @@
         <v>82756</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3505,13 @@
         <v>16838</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -3508,13 +3520,13 @@
         <v>19770</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>53</v>
@@ -3523,13 +3535,13 @@
         <v>36608</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3556,13 @@
         <v>8042</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -3559,13 +3571,13 @@
         <v>4684</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -3574,13 +3586,13 @@
         <v>12726</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3660,13 @@
         <v>6383</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -3663,13 +3675,13 @@
         <v>7181</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -3678,13 +3690,13 @@
         <v>13564</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3711,13 @@
         <v>90227</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H33" s="7">
         <v>102</v>
@@ -3714,28 +3726,28 @@
         <v>72697</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M33" s="7">
         <v>230</v>
       </c>
       <c r="N33" s="7">
-        <v>162925</v>
+        <v>162924</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3762,13 @@
         <v>158163</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>220</v>
@@ -3765,13 +3777,13 @@
         <v>153184</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M34" s="7">
         <v>450</v>
@@ -3780,13 +3792,13 @@
         <v>311348</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3813,13 @@
         <v>220114</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H35" s="7">
         <v>318</v>
@@ -3816,13 +3828,13 @@
         <v>220199</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M35" s="7">
         <v>630</v>
@@ -3831,13 +3843,13 @@
         <v>440313</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3864,13 @@
         <v>138810</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="H36" s="7">
         <v>206</v>
@@ -3867,13 +3879,13 @@
         <v>141842</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M36" s="7">
         <v>402</v>
@@ -3882,13 +3894,13 @@
         <v>280652</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3915,13 @@
         <v>114119</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H37" s="7">
         <v>143</v>
@@ -3918,13 +3930,13 @@
         <v>98419</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M37" s="7">
         <v>305</v>
@@ -3933,13 +3945,13 @@
         <v>212538</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,7 +3993,7 @@
         <v>2036</v>
       </c>
       <c r="N38" s="7">
-        <v>1421340</v>
+        <v>1421339</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>19</v>
@@ -3995,7 +4007,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4015,7 +4027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE33B5C-1C17-4C1E-A021-D340DB4662E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA1984B-A97A-4910-A830-8726F35E26EF}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4032,7 +4044,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4462,7 +4474,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4471,13 +4483,13 @@
         <v>571</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4486,13 +4498,13 @@
         <v>571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4519,13 @@
         <v>3138</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4528,7 +4540,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4537,13 +4549,13 @@
         <v>3138</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4570,13 @@
         <v>3417</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4573,13 +4585,13 @@
         <v>2724</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4588,13 +4600,13 @@
         <v>6141</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4621,13 @@
         <v>13790</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -4624,13 +4636,13 @@
         <v>9676</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -4639,13 +4651,13 @@
         <v>23466</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4672,13 @@
         <v>23066</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -4675,13 +4687,13 @@
         <v>19065</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M15" s="7">
         <v>60</v>
@@ -4690,13 +4702,13 @@
         <v>42131</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4723,13 @@
         <v>24541</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4726,13 +4738,13 @@
         <v>24773</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -4741,13 +4753,13 @@
         <v>49313</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4827,13 @@
         <v>646</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -4830,13 +4842,13 @@
         <v>1170</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -4845,13 +4857,13 @@
         <v>1815</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4878,13 @@
         <v>39113</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -4881,13 +4893,13 @@
         <v>30970</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -4896,13 +4908,13 @@
         <v>70083</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4929,13 @@
         <v>81790</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H20" s="7">
         <v>149</v>
@@ -4932,13 +4944,13 @@
         <v>98177</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M20" s="7">
         <v>268</v>
@@ -4947,13 +4959,13 @@
         <v>179967</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4980,13 @@
         <v>146523</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H21" s="7">
         <v>214</v>
@@ -4983,13 +4995,13 @@
         <v>144554</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M21" s="7">
         <v>424</v>
@@ -4998,13 +5010,13 @@
         <v>291076</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5031,13 @@
         <v>134854</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>314</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -5034,13 +5046,13 @@
         <v>108214</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M22" s="7">
         <v>353</v>
@@ -5049,13 +5061,13 @@
         <v>243068</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5082,13 @@
         <v>80215</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H23" s="7">
         <v>130</v>
@@ -5085,13 +5097,13 @@
         <v>83575</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>244</v>
@@ -5100,13 +5112,13 @@
         <v>163790</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,7 +5174,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5174,13 +5186,13 @@
         <v>6850</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -5189,13 +5201,13 @@
         <v>5732</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>28</v>
+        <v>330</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -5204,13 +5216,13 @@
         <v>12582</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5237,13 @@
         <v>51705</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -5240,13 +5252,13 @@
         <v>40888</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M26" s="7">
         <v>135</v>
@@ -5255,13 +5267,13 @@
         <v>92594</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,10 +5288,10 @@
         <v>63619</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>345</v>
@@ -5291,13 +5303,13 @@
         <v>54298</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M27" s="7">
         <v>171</v>
@@ -5306,13 +5318,13 @@
         <v>117917</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5339,13 @@
         <v>39796</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -5342,13 +5354,13 @@
         <v>44744</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M28" s="7">
         <v>127</v>
@@ -5357,13 +5369,13 @@
         <v>84540</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,10 +5423,10 @@
         <v>366</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>81</v>
+        <v>367</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,10 +5441,10 @@
         <v>9493</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>369</v>
+        <v>130</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>370</v>
@@ -5459,13 +5471,13 @@
         <v>17654</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>374</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>375</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5545,13 @@
         <v>7496</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -5548,13 +5560,13 @@
         <v>7472</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>379</v>
+        <v>235</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>380</v>
+        <v>183</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M32" s="7">
         <v>22</v>
@@ -5563,13 +5575,13 @@
         <v>14968</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>28</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5596,13 @@
         <v>93956</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H33" s="7">
         <v>108</v>
@@ -5599,13 +5611,13 @@
         <v>71858</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M33" s="7">
         <v>239</v>
@@ -5614,13 +5626,13 @@
         <v>165815</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>39</v>
+        <v>386</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>256</v>
+        <v>387</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>388</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,7 +5647,7 @@
         <v>148826</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>110</v>
+        <v>388</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>389</v>
@@ -5686,13 +5698,13 @@
         <v>200109</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H35" s="7">
         <v>299</v>
@@ -5701,10 +5713,10 @@
         <v>198974</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>401</v>
@@ -5737,13 +5749,13 @@
         <v>173952</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>155</v>
+        <v>405</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H36" s="7">
         <v>218</v>
@@ -5752,13 +5764,13 @@
         <v>145005</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>152</v>
+        <v>408</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="M36" s="7">
         <v>462</v>
@@ -5767,13 +5779,13 @@
         <v>318957</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5800,13 @@
         <v>114249</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H37" s="7">
         <v>179</v>
@@ -5803,13 +5815,13 @@
         <v>116508</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M37" s="7">
         <v>343</v>
@@ -5818,13 +5830,13 @@
         <v>230757</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,7 +5892,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5900,7 +5912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85DC675-CE9B-4B56-AD5D-CA3F1AE3EE09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F4B4F5-E05D-412E-8047-7A953D6004DA}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5917,7 +5929,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6347,7 +6359,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6362,7 +6374,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6377,7 +6389,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,7 +6410,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6413,7 +6425,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6428,7 +6440,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,7 +6461,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6464,7 +6476,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6479,7 +6491,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,10 +6506,10 @@
         <v>2271</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>425</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -6530,7 +6542,7 @@
         <v>428</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,7 +6563,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -6566,7 +6578,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -6581,7 +6593,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,13 +6608,13 @@
         <v>1156</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>430</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>17</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6611,7 +6623,7 @@
         <v>656</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -6626,13 +6638,13 @@
         <v>1812</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>433</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,7 +6718,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -6715,13 +6727,13 @@
         <v>566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -6730,13 +6742,13 @@
         <v>565</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6763,13 @@
         <v>4449</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>440</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>442</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -6766,13 +6778,13 @@
         <v>2148</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>443</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -6781,13 +6793,13 @@
         <v>6597</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6814,13 @@
         <v>8859</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>443</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -6817,13 +6829,13 @@
         <v>4491</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -6832,13 +6844,13 @@
         <v>13350</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6865,13 @@
         <v>5026</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>457</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -6868,13 +6880,13 @@
         <v>5795</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -6883,13 +6895,13 @@
         <v>10820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6916,13 @@
         <v>5138</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -6919,13 +6931,13 @@
         <v>3862</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -6934,13 +6946,13 @@
         <v>9000</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,13 +6967,13 @@
         <v>1346</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>469</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>470</v>
+        <v>321</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -6970,13 +6982,13 @@
         <v>1293</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -6985,13 +6997,13 @@
         <v>2639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>233</v>
+        <v>478</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,7 +7059,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7065,7 +7077,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>481</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7080,7 +7092,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7095,7 +7107,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>29</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7122,13 @@
         <v>1884</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>484</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -7125,13 +7137,13 @@
         <v>2698</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -7140,13 +7152,13 @@
         <v>4582</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7173,13 @@
         <v>3101</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -7176,13 +7188,13 @@
         <v>1723</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7191,13 +7203,13 @@
         <v>4824</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>492</v>
+        <v>105</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7224,13 @@
         <v>872</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7233,7 +7245,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -7242,13 +7254,13 @@
         <v>872</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,13 +7275,13 @@
         <v>717</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7284,7 +7296,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -7293,13 +7305,13 @@
         <v>717</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,7 +7332,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>95</v>
+        <v>481</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -7329,13 +7341,13 @@
         <v>354</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -7344,13 +7356,13 @@
         <v>354</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,7 +7436,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -7433,13 +7445,13 @@
         <v>566</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7448,13 +7460,13 @@
         <v>565</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>280</v>
+        <v>515</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,13 +7481,13 @@
         <v>6333</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -7484,13 +7496,13 @@
         <v>4846</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>514</v>
+        <v>366</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -7499,13 +7511,13 @@
         <v>11180</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>516</v>
+        <v>137</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,13 +7532,13 @@
         <v>11960</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="H34" s="7">
         <v>9</v>
@@ -7535,13 +7547,13 @@
         <v>6215</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
@@ -7550,13 +7562,13 @@
         <v>18174</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>526</v>
+        <v>109</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,13 +7583,13 @@
         <v>8168</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -7586,13 +7598,13 @@
         <v>6574</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M35" s="7">
         <v>21</v>
@@ -7601,13 +7613,13 @@
         <v>14742</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,13 +7634,13 @@
         <v>5855</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>357</v>
+        <v>543</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -7637,13 +7649,13 @@
         <v>3862</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -7652,13 +7664,13 @@
         <v>9718</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>544</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,13 +7685,13 @@
         <v>2502</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>546</v>
+        <v>376</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -7688,13 +7700,13 @@
         <v>2302</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -7703,13 +7715,13 @@
         <v>4804</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>373</v>
+        <v>553</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>328</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,7 +7777,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
